--- a/Test/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Test/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Documents\Unity-Study\Test\Assets\ExcelImporter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Documents\Unity-Study\Test\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFAF61-D40B-444D-9E27-F52A0110D233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92176651-66DE-427F-A56B-B4EE8021C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="3045" windowWidth="26910" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24585" yWindow="3480" windowWidth="22155" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>GuestID</t>
   </si>
   <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>안녕 내 이름은 루피야</t>
-  </si>
-  <si>
-    <t>만나서 반가워</t>
-  </si>
-  <si>
-    <t>너의 이름은  뭐니?</t>
-  </si>
-  <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Sat</t>
@@ -50,6 +37,38 @@
   </si>
   <si>
     <t>DialogImageNumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요 제 이름은 실연이에요….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나서 반…반가워..요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 제.. 마음을 치유할 수 있다고 들어서 찾아왔어요..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능한가요..?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 사실 나는 짱구야</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 얘기를 들어봐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>천방지축 얼렁뚱땅 빙글빙글 돌아가는 짱구네 하루</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이히히히히히히히히히히히히히히ㅣㅎ</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1048,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,11 +1118,80 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test/Assets/Scripts/Dialog/DialogDB.xlsx
+++ b/Test/Assets/Scripts/Dialog/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최현산\Documents\Unity-Study\Test\Assets\Scripts\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92176651-66DE-427F-A56B-B4EE8021C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FA0E2-60C2-4B4D-A608-9FD5F1318B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24585" yWindow="3480" windowWidth="22155" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25605" yWindow="1020" windowWidth="24060" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogText" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>GuestID</t>
   </si>
@@ -40,35 +40,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요 제 이름은 실연이에요….</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>만나서 반…반가워..요..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기서 제.. 마음을 치유할 수 있다고 들어서 찾아왔어요..</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>가능한가요..?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 사실 나는 짱구야</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 얘기를 들어봐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>천방지축 얼렁뚱땅 빙글빙글 돌아가는 짱구네 하루</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이히히히히히히히히히히히히히히ㅣㅎ</t>
+    <t>손님1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님13</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님20</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1021,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,16 +1120,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1089,13 +1137,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1106,13 +1154,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1123,10 +1171,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1140,13 +1188,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1157,13 +1205,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1174,19 +1222,903 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
